--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -939,6 +939,12 @@
   </si>
   <si>
     <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1029,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5273,14 +5279,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="5" t="s">
+    <row r="305">
+      <c r="A305" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="5" t="s">
+      <c r="C305" s="4">
+        <v>291.972582</v>
+      </c>
+      <c r="D305" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B306" s="0" t="s">
         <v>310</v>
+      </c>
+      <c r="C306" s="0">
+        <v>292.209743</v>
+      </c>
+      <c r="D306" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -945,6 +945,9 @@
   </si>
   <si>
     <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5307,14 +5310,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="5" t="s">
+    <row r="307">
+      <c r="A307" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" s="4" t="s">
         <v>311</v>
+      </c>
+      <c r="C307" s="4">
+        <v>292.297417</v>
+      </c>
+      <c r="D307" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="5" t="s">
         <v>312</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5324,14 +5327,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="5" t="s">
+    <row r="308">
+      <c r="A308" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" s="0" t="s">
         <v>312</v>
+      </c>
+      <c r="C308" s="0">
+        <v>292.395802</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="5" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -951,6 +951,18 @@
   </si>
   <si>
     <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1041,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D312"/>
+  <dimension ref="A1:D316"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5341,14 +5353,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C309" s="4">
+        <v>292.44955</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C310" s="0">
+        <v>292.61495</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="311">
-      <c r="A311" s="5" t="s">
-        <v>313</v>
+      <c r="A311" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C311" s="4">
+        <v>292.669785</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="5" t="s">
-        <v>314</v>
+      <c r="A312" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C312" s="0">
+        <v>292.739928</v>
+      </c>
+      <c r="D312" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="5" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -963,6 +963,9 @@
   </si>
   <si>
     <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1053,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D316"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5409,14 +5412,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="5" t="s">
+    <row r="313">
+      <c r="A313" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B313" s="4" t="s">
         <v>317</v>
+      </c>
+      <c r="C313" s="4">
+        <v>292.805987</v>
+      </c>
+      <c r="D313" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="5" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="5" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -966,6 +966,33 @@
   </si>
   <si>
     <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>31/03/2025</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1056,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5426,14 +5453,140 @@
         <v>8</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C314" s="0">
+        <v>292.947915</v>
+      </c>
+      <c r="D314" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C315" s="4">
+        <v>293.214821</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="316">
-      <c r="A316" s="5" t="s">
-        <v>318</v>
+      <c r="A316" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C316" s="0">
+        <v>293.274682</v>
+      </c>
+      <c r="D316" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="5" t="s">
-        <v>319</v>
+      <c r="A317" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C317" s="4">
+        <v>293.404509</v>
+      </c>
+      <c r="D317" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C318" s="0">
+        <v>293.481961</v>
+      </c>
+      <c r="D318" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C319" s="4">
+        <v>293.739445</v>
+      </c>
+      <c r="D319" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C320" s="0">
+        <v>293.886449</v>
+      </c>
+      <c r="D320" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C321" s="4">
+        <v>293.851494</v>
+      </c>
+      <c r="D321" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C322" s="0">
+        <v>293.912706</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -35,12 +35,330 @@
     <t>ISIMP</t>
   </si>
   <si>
+    <t>31/07/2023</t>
+  </si>
+  <si>
+    <t>Índice de Sociedades de Inversión de Mediano Plazo</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>10/08/2023</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>14/08/2023</t>
+  </si>
+  <si>
+    <t>15/08/2023</t>
+  </si>
+  <si>
+    <t>16/08/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>21/08/2023</t>
+  </si>
+  <si>
+    <t>22/08/2023</t>
+  </si>
+  <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
+  <si>
+    <t>30/08/2023</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>07/09/2023</t>
+  </si>
+  <si>
+    <t>08/09/2023</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>14/09/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023</t>
+  </si>
+  <si>
+    <t>18/09/2023</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>20/09/2023</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>22/09/2023</t>
+  </si>
+  <si>
+    <t>25/09/2023</t>
+  </si>
+  <si>
+    <t>26/09/2023</t>
+  </si>
+  <si>
+    <t>27/09/2023</t>
+  </si>
+  <si>
+    <t>28/09/2023</t>
+  </si>
+  <si>
+    <t>29/09/2023</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>09/10/2023</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>23/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>28/11/2023</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>30/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>05/12/2023</t>
+  </si>
+  <si>
+    <t>06/12/2023</t>
+  </si>
+  <si>
+    <t>07/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>11/12/2023</t>
+  </si>
+  <si>
+    <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
     <t>02/01/2024</t>
   </si>
   <si>
-    <t>Índice de Sociedades de Inversión de Mediano Plazo</t>
-  </si>
-  <si>
     <t>03/01/2024</t>
   </si>
   <si>
@@ -993,6 +1311,51 @@
   </si>
   <si>
     <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>02/05/2025</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1083,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D447"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1121,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="0">
-        <v>260.585246</v>
+        <v>249.692304</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>8</v>
@@ -1135,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <v>260.588146</v>
+        <v>249.810985</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -1149,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="0">
-        <v>260.656244</v>
+        <v>249.86492</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
@@ -1163,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4">
-        <v>260.673049</v>
+        <v>249.922794</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -1177,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="0">
-        <v>260.905944</v>
+        <v>249.951662</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>8</v>
@@ -1191,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>260.991893</v>
+        <v>250.160454</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
@@ -1205,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="0">
-        <v>261.05583</v>
+        <v>250.183104</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>8</v>
@@ -1219,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>261.157159</v>
+        <v>250.268984</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -1233,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="0">
-        <v>261.255904</v>
+        <v>250.39126</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>8</v>
@@ -1247,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="4">
-        <v>261.5254</v>
+        <v>250.433578</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -1261,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="0">
-        <v>261.575692</v>
+        <v>250.578152</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>8</v>
@@ -1275,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="4">
-        <v>261.634443</v>
+        <v>250.571173</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1289,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="0">
-        <v>261.642122</v>
+        <v>250.644523</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>8</v>
@@ -1303,7 +1666,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>261.724089</v>
+        <v>250.69219</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1317,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="0">
-        <v>261.919188</v>
+        <v>250.679307</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>8</v>
@@ -1331,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="4">
-        <v>261.995115</v>
+        <v>250.854607</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>8</v>
@@ -1345,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="0">
-        <v>262.05646</v>
+        <v>250.84639</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>8</v>
@@ -1359,7 +1722,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="4">
-        <v>262.12208</v>
+        <v>250.931566</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>8</v>
@@ -1373,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="0">
-        <v>262.198806</v>
+        <v>251.128674</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>8</v>
@@ -1387,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="4">
-        <v>262.404405</v>
+        <v>251.142975</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
@@ -1401,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="0">
-        <v>262.446577</v>
+        <v>251.338299</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>8</v>
@@ -1415,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>262.501908</v>
+        <v>251.398157</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
@@ -1429,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="0">
-        <v>262.644355</v>
+        <v>251.492942</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>8</v>
@@ -1443,7 +1806,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="4">
-        <v>262.728237</v>
+        <v>251.516543</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
@@ -1457,7 +1820,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="0">
-        <v>262.910647</v>
+        <v>251.622688</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>8</v>
@@ -1471,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="4">
-        <v>262.941385</v>
+        <v>251.79832</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>8</v>
@@ -1485,7 +1848,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="0">
-        <v>263.040971</v>
+        <v>251.865553</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>8</v>
@@ -1499,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="4">
-        <v>263.166061</v>
+        <v>251.886929</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
@@ -1513,7 +1876,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="0">
-        <v>263.409728</v>
+        <v>251.893779</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
@@ -1527,7 +1890,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="4">
-        <v>263.467929</v>
+        <v>251.980563</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>8</v>
@@ -1541,7 +1904,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="0">
-        <v>263.421419</v>
+        <v>252.168114</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>8</v>
@@ -1555,7 +1918,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="4">
-        <v>263.532812</v>
+        <v>252.144907</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>8</v>
@@ -1569,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="0">
-        <v>263.588935</v>
+        <v>252.260977</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>8</v>
@@ -1583,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="4">
-        <v>263.770836</v>
+        <v>252.4188</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>8</v>
@@ -1597,7 +1960,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="0">
-        <v>263.83799</v>
+        <v>252.488563</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>8</v>
@@ -1611,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="4">
-        <v>263.907101</v>
+        <v>252.694437</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>8</v>
@@ -1625,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="0">
-        <v>264.030739</v>
+        <v>252.737707</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -1639,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>264.125874</v>
+        <v>252.735793</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>8</v>
@@ -1653,7 +2016,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="0">
-        <v>264.342524</v>
+        <v>252.809256</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>8</v>
@@ -1667,7 +2030,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="4">
-        <v>264.338598</v>
+        <v>252.83758</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>8</v>
@@ -1681,7 +2044,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="0">
-        <v>264.390211</v>
+        <v>253.023256</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>8</v>
@@ -1695,7 +2058,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="4">
-        <v>264.5102</v>
+        <v>253.011715</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>8</v>
@@ -1709,7 +2072,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="0">
-        <v>264.614813</v>
+        <v>253.00378</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -1723,7 +2086,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="4">
-        <v>264.821388</v>
+        <v>252.965713</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>8</v>
@@ -1737,7 +2100,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="0">
-        <v>264.85649</v>
+        <v>253.162665</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>8</v>
@@ -1751,7 +2114,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="4">
-        <v>264.97482</v>
+        <v>253.407526</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>8</v>
@@ -1765,7 +2128,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="0">
-        <v>265.078528</v>
+        <v>253.432405</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
@@ -1779,7 +2142,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="4">
-        <v>265.12402</v>
+        <v>253.490944</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
@@ -1793,7 +2156,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="0">
-        <v>265.338509</v>
+        <v>253.667166</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
@@ -1807,7 +2170,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>265.383488</v>
+        <v>253.727342</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>8</v>
@@ -1821,7 +2184,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="0">
-        <v>265.451332</v>
+        <v>253.957748</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>8</v>
@@ -1835,7 +2198,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>265.532144</v>
+        <v>254.067889</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>8</v>
@@ -1849,7 +2212,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="0">
-        <v>265.52942</v>
+        <v>254.179207</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>8</v>
@@ -1863,7 +2226,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>265.738537</v>
+        <v>254.222345</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>8</v>
@@ -1877,7 +2240,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="0">
-        <v>265.805096</v>
+        <v>254.196462</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>8</v>
@@ -1891,7 +2254,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="4">
-        <v>265.94005</v>
+        <v>254.395821</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>8</v>
@@ -1905,7 +2268,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="0">
-        <v>266.101698</v>
+        <v>254.417945</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>8</v>
@@ -1919,7 +2282,7 @@
         <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>266.241479</v>
+        <v>254.430711</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>8</v>
@@ -1933,7 +2296,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="0">
-        <v>266.225847</v>
+        <v>254.475425</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>8</v>
@@ -1947,7 +2310,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>266.320197</v>
+        <v>254.56712</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>8</v>
@@ -1961,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="0">
-        <v>266.688176</v>
+        <v>254.822256</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>8</v>
@@ -1975,7 +2338,7 @@
         <v>69</v>
       </c>
       <c r="C65" s="4">
-        <v>266.670589</v>
+        <v>254.866253</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>8</v>
@@ -1989,7 +2352,7 @@
         <v>70</v>
       </c>
       <c r="C66" s="0">
-        <v>266.676338</v>
+        <v>254.888719</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>8</v>
@@ -2003,7 +2366,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4">
-        <v>266.729967</v>
+        <v>254.859617</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>8</v>
@@ -2017,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="0">
-        <v>266.784055</v>
+        <v>255.048873</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>8</v>
@@ -2031,7 +2394,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="4">
-        <v>266.86168</v>
+        <v>255.290947</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>8</v>
@@ -2045,7 +2408,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="0">
-        <v>266.863003</v>
+        <v>255.265023</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>8</v>
@@ -2059,7 +2422,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>266.986583</v>
+        <v>255.361014</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>8</v>
@@ -2073,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="0">
-        <v>266.793713</v>
+        <v>255.581837</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>8</v>
@@ -2087,7 +2450,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4">
-        <v>266.912286</v>
+        <v>256.020539</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>8</v>
@@ -2101,7 +2464,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="0">
-        <v>267.118407</v>
+        <v>256.05216</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>8</v>
@@ -2115,7 +2478,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4">
-        <v>267.050085</v>
+        <v>256.170171</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>8</v>
@@ -2129,7 +2492,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="0">
-        <v>266.989213</v>
+        <v>256.257657</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>8</v>
@@ -2143,7 +2506,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4">
-        <v>267.176539</v>
+        <v>256.368458</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>8</v>
@@ -2157,7 +2520,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="0">
-        <v>267.229851</v>
+        <v>256.716293</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>8</v>
@@ -2171,7 +2534,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>267.548663</v>
+        <v>256.763569</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>8</v>
@@ -2185,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="0">
-        <v>267.557028</v>
+        <v>257.00949</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>8</v>
@@ -2199,7 +2562,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>267.608398</v>
+        <v>257.074132</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>8</v>
@@ -2213,7 +2576,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="0">
-        <v>267.630215</v>
+        <v>257.16369</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>8</v>
@@ -2227,7 +2590,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>267.662535</v>
+        <v>257.412263</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>8</v>
@@ -2241,7 +2604,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="0">
-        <v>267.883121</v>
+        <v>257.430217</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>8</v>
@@ -2255,7 +2618,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>267.932573</v>
+        <v>257.451849</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>8</v>
@@ -2269,7 +2632,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="0">
-        <v>268.048758</v>
+        <v>257.534638</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>8</v>
@@ -2283,7 +2646,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4">
-        <v>268.321004</v>
+        <v>257.722184</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>8</v>
@@ -2297,7 +2660,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="0">
-        <v>268.69159</v>
+        <v>257.862637</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>8</v>
@@ -2311,7 +2674,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4">
-        <v>268.758865</v>
+        <v>258.015169</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>8</v>
@@ -2325,7 +2688,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="0">
-        <v>268.820531</v>
+        <v>258.140903</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>8</v>
@@ -2339,7 +2702,7 @@
         <v>95</v>
       </c>
       <c r="C91" s="4">
-        <v>268.913508</v>
+        <v>258.158952</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>8</v>
@@ -2353,7 +2716,7 @@
         <v>96</v>
       </c>
       <c r="C92" s="0">
-        <v>269.009709</v>
+        <v>258.425809</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>8</v>
@@ -2367,7 +2730,7 @@
         <v>97</v>
       </c>
       <c r="C93" s="4">
-        <v>269.037987</v>
+        <v>258.462776</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>8</v>
@@ -2381,7 +2744,7 @@
         <v>98</v>
       </c>
       <c r="C94" s="0">
-        <v>269.100502</v>
+        <v>258.556412</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>8</v>
@@ -2395,7 +2758,7 @@
         <v>99</v>
       </c>
       <c r="C95" s="4">
-        <v>269.226221</v>
+        <v>258.651906</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>8</v>
@@ -2409,7 +2772,7 @@
         <v>100</v>
       </c>
       <c r="C96" s="0">
-        <v>269.396762</v>
+        <v>258.74893</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>8</v>
@@ -2423,7 +2786,7 @@
         <v>101</v>
       </c>
       <c r="C97" s="4">
-        <v>269.393617</v>
+        <v>258.917193</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>8</v>
@@ -2437,7 +2800,7 @@
         <v>102</v>
       </c>
       <c r="C98" s="0">
-        <v>269.583165</v>
+        <v>259.022101</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>8</v>
@@ -2451,7 +2814,7 @@
         <v>103</v>
       </c>
       <c r="C99" s="4">
-        <v>269.638355</v>
+        <v>259.16753</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>8</v>
@@ -2465,7 +2828,7 @@
         <v>104</v>
       </c>
       <c r="C100" s="0">
-        <v>269.688684</v>
+        <v>259.291341</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>8</v>
@@ -2479,7 +2842,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="4">
-        <v>269.727133</v>
+        <v>259.458796</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>8</v>
@@ -2493,7 +2856,7 @@
         <v>106</v>
       </c>
       <c r="C102" s="0">
-        <v>269.767441</v>
+        <v>259.494355</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>8</v>
@@ -2507,7 +2870,7 @@
         <v>107</v>
       </c>
       <c r="C103" s="4">
-        <v>269.993682</v>
+        <v>259.592842</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>8</v>
@@ -2521,7 +2884,7 @@
         <v>108</v>
       </c>
       <c r="C104" s="0">
-        <v>270.063282</v>
+        <v>259.709613</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>8</v>
@@ -2535,7 +2898,7 @@
         <v>109</v>
       </c>
       <c r="C105" s="4">
-        <v>270.093454</v>
+        <v>259.766081</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>8</v>
@@ -2549,7 +2912,7 @@
         <v>110</v>
       </c>
       <c r="C106" s="0">
-        <v>270.126289</v>
+        <v>260.040443</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>8</v>
@@ -2563,7 +2926,7 @@
         <v>111</v>
       </c>
       <c r="C107" s="4">
-        <v>270.196964</v>
+        <v>260.109239</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>8</v>
@@ -2577,7 +2940,7 @@
         <v>112</v>
       </c>
       <c r="C108" s="0">
-        <v>270.436022</v>
+        <v>260.212782</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>8</v>
@@ -2591,7 +2954,7 @@
         <v>113</v>
       </c>
       <c r="C109" s="4">
-        <v>270.315082</v>
+        <v>260.279162</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>8</v>
@@ -2605,7 +2968,7 @@
         <v>114</v>
       </c>
       <c r="C110" s="0">
-        <v>270.395237</v>
+        <v>260.585246</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>8</v>
@@ -2619,7 +2982,7 @@
         <v>115</v>
       </c>
       <c r="C111" s="4">
-        <v>270.619942</v>
+        <v>260.588146</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>8</v>
@@ -2633,7 +2996,7 @@
         <v>116</v>
       </c>
       <c r="C112" s="0">
-        <v>270.775768</v>
+        <v>260.656244</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>8</v>
@@ -2647,7 +3010,7 @@
         <v>117</v>
       </c>
       <c r="C113" s="4">
-        <v>270.554636</v>
+        <v>260.673049</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>8</v>
@@ -2661,7 +3024,7 @@
         <v>118</v>
       </c>
       <c r="C114" s="0">
-        <v>270.590353</v>
+        <v>260.905944</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>8</v>
@@ -2675,7 +3038,7 @@
         <v>119</v>
       </c>
       <c r="C115" s="4">
-        <v>270.427346</v>
+        <v>260.991893</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>8</v>
@@ -2689,7 +3052,7 @@
         <v>120</v>
       </c>
       <c r="C116" s="0">
-        <v>270.464367</v>
+        <v>261.05583</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>8</v>
@@ -2703,7 +3066,7 @@
         <v>121</v>
       </c>
       <c r="C117" s="4">
-        <v>270.845987</v>
+        <v>261.157159</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>8</v>
@@ -2717,7 +3080,7 @@
         <v>122</v>
       </c>
       <c r="C118" s="0">
-        <v>270.935152</v>
+        <v>261.255904</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>8</v>
@@ -2731,7 +3094,7 @@
         <v>123</v>
       </c>
       <c r="C119" s="4">
-        <v>270.922147</v>
+        <v>261.5254</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>8</v>
@@ -2745,7 +3108,7 @@
         <v>124</v>
       </c>
       <c r="C120" s="0">
-        <v>271.172805</v>
+        <v>261.575692</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>8</v>
@@ -2759,7 +3122,7 @@
         <v>125</v>
       </c>
       <c r="C121" s="4">
-        <v>271.238399</v>
+        <v>261.634443</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>8</v>
@@ -2773,7 +3136,7 @@
         <v>126</v>
       </c>
       <c r="C122" s="0">
-        <v>271.37877</v>
+        <v>261.642122</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>8</v>
@@ -2787,7 +3150,7 @@
         <v>127</v>
       </c>
       <c r="C123" s="4">
-        <v>271.62659</v>
+        <v>261.724089</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>8</v>
@@ -2801,7 +3164,7 @@
         <v>128</v>
       </c>
       <c r="C124" s="0">
-        <v>271.827773</v>
+        <v>261.919188</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>8</v>
@@ -2815,7 +3178,7 @@
         <v>129</v>
       </c>
       <c r="C125" s="4">
-        <v>271.90341</v>
+        <v>261.995115</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>8</v>
@@ -2829,7 +3192,7 @@
         <v>130</v>
       </c>
       <c r="C126" s="0">
-        <v>271.932631</v>
+        <v>262.05646</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>8</v>
@@ -2843,7 +3206,7 @@
         <v>131</v>
       </c>
       <c r="C127" s="4">
-        <v>272.086549</v>
+        <v>262.12208</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>8</v>
@@ -2857,7 +3220,7 @@
         <v>132</v>
       </c>
       <c r="C128" s="0">
-        <v>272.357044</v>
+        <v>262.198806</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>8</v>
@@ -2871,7 +3234,7 @@
         <v>133</v>
       </c>
       <c r="C129" s="4">
-        <v>272.317678</v>
+        <v>262.404405</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>8</v>
@@ -2885,7 +3248,7 @@
         <v>134</v>
       </c>
       <c r="C130" s="0">
-        <v>272.357438</v>
+        <v>262.446577</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>8</v>
@@ -2899,7 +3262,7 @@
         <v>135</v>
       </c>
       <c r="C131" s="4">
-        <v>272.461901</v>
+        <v>262.501908</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>8</v>
@@ -2913,7 +3276,7 @@
         <v>136</v>
       </c>
       <c r="C132" s="0">
-        <v>272.494703</v>
+        <v>262.644355</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>8</v>
@@ -2927,7 +3290,7 @@
         <v>137</v>
       </c>
       <c r="C133" s="4">
-        <v>272.74034</v>
+        <v>262.728237</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>8</v>
@@ -2941,7 +3304,7 @@
         <v>138</v>
       </c>
       <c r="C134" s="0">
-        <v>272.804828</v>
+        <v>262.910647</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>8</v>
@@ -2955,7 +3318,7 @@
         <v>139</v>
       </c>
       <c r="C135" s="4">
-        <v>272.853455</v>
+        <v>262.941385</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>8</v>
@@ -2969,7 +3332,7 @@
         <v>140</v>
       </c>
       <c r="C136" s="0">
-        <v>273.056722</v>
+        <v>263.040971</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>8</v>
@@ -2983,7 +3346,7 @@
         <v>141</v>
       </c>
       <c r="C137" s="4">
-        <v>273.303958</v>
+        <v>263.166061</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>8</v>
@@ -2997,7 +3360,7 @@
         <v>142</v>
       </c>
       <c r="C138" s="0">
-        <v>273.562558</v>
+        <v>263.409728</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>8</v>
@@ -3011,7 +3374,7 @@
         <v>143</v>
       </c>
       <c r="C139" s="4">
-        <v>273.634168</v>
+        <v>263.467929</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>8</v>
@@ -3025,7 +3388,7 @@
         <v>144</v>
       </c>
       <c r="C140" s="0">
-        <v>273.708243</v>
+        <v>263.421419</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>8</v>
@@ -3039,7 +3402,7 @@
         <v>145</v>
       </c>
       <c r="C141" s="4">
-        <v>273.718753</v>
+        <v>263.532812</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>8</v>
@@ -3053,7 +3416,7 @@
         <v>146</v>
       </c>
       <c r="C142" s="0">
-        <v>273.668954</v>
+        <v>263.588935</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>8</v>
@@ -3067,7 +3430,7 @@
         <v>147</v>
       </c>
       <c r="C143" s="4">
-        <v>273.838037</v>
+        <v>263.770836</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>8</v>
@@ -3081,7 +3444,7 @@
         <v>148</v>
       </c>
       <c r="C144" s="0">
-        <v>273.947474</v>
+        <v>263.83799</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>8</v>
@@ -3095,7 +3458,7 @@
         <v>149</v>
       </c>
       <c r="C145" s="4">
-        <v>273.975401</v>
+        <v>263.907101</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>8</v>
@@ -3109,7 +3472,7 @@
         <v>150</v>
       </c>
       <c r="C146" s="0">
-        <v>274.097596</v>
+        <v>264.030739</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>8</v>
@@ -3123,7 +3486,7 @@
         <v>151</v>
       </c>
       <c r="C147" s="4">
-        <v>274.197338</v>
+        <v>264.125874</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>8</v>
@@ -3137,7 +3500,7 @@
         <v>152</v>
       </c>
       <c r="C148" s="0">
-        <v>274.494678</v>
+        <v>264.342524</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>8</v>
@@ -3151,7 +3514,7 @@
         <v>153</v>
       </c>
       <c r="C149" s="4">
-        <v>274.587577</v>
+        <v>264.338598</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>8</v>
@@ -3165,7 +3528,7 @@
         <v>154</v>
       </c>
       <c r="C150" s="0">
-        <v>274.658348</v>
+        <v>264.390211</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>8</v>
@@ -3179,7 +3542,7 @@
         <v>155</v>
       </c>
       <c r="C151" s="4">
-        <v>274.819838</v>
+        <v>264.5102</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>8</v>
@@ -3193,7 +3556,7 @@
         <v>156</v>
       </c>
       <c r="C152" s="0">
-        <v>274.881492</v>
+        <v>264.614813</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>8</v>
@@ -3207,7 +3570,7 @@
         <v>157</v>
       </c>
       <c r="C153" s="4">
-        <v>275.37296</v>
+        <v>264.821388</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>8</v>
@@ -3221,7 +3584,7 @@
         <v>158</v>
       </c>
       <c r="C154" s="0">
-        <v>275.411434</v>
+        <v>264.85649</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>8</v>
@@ -3235,7 +3598,7 @@
         <v>159</v>
       </c>
       <c r="C155" s="4">
-        <v>275.422398</v>
+        <v>264.97482</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>8</v>
@@ -3249,7 +3612,7 @@
         <v>160</v>
       </c>
       <c r="C156" s="0">
-        <v>275.613665</v>
+        <v>265.078528</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>8</v>
@@ -3263,7 +3626,7 @@
         <v>161</v>
       </c>
       <c r="C157" s="4">
-        <v>275.875082</v>
+        <v>265.12402</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>8</v>
@@ -3277,7 +3640,7 @@
         <v>162</v>
       </c>
       <c r="C158" s="0">
-        <v>276.171156</v>
+        <v>265.338509</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>8</v>
@@ -3291,7 +3654,7 @@
         <v>163</v>
       </c>
       <c r="C159" s="4">
-        <v>276.203523</v>
+        <v>265.383488</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>8</v>
@@ -3305,7 +3668,7 @@
         <v>164</v>
       </c>
       <c r="C160" s="0">
-        <v>276.263605</v>
+        <v>265.451332</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>8</v>
@@ -3319,7 +3682,7 @@
         <v>165</v>
       </c>
       <c r="C161" s="4">
-        <v>276.31877</v>
+        <v>265.532144</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>8</v>
@@ -3333,7 +3696,7 @@
         <v>166</v>
       </c>
       <c r="C162" s="0">
-        <v>276.333055</v>
+        <v>265.52942</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>8</v>
@@ -3347,7 +3710,7 @@
         <v>167</v>
       </c>
       <c r="C163" s="4">
-        <v>276.590677</v>
+        <v>265.738537</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>8</v>
@@ -3361,7 +3724,7 @@
         <v>168</v>
       </c>
       <c r="C164" s="0">
-        <v>276.661294</v>
+        <v>265.805096</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>8</v>
@@ -3375,7 +3738,7 @@
         <v>169</v>
       </c>
       <c r="C165" s="4">
-        <v>276.700735</v>
+        <v>265.94005</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>8</v>
@@ -3389,7 +3752,7 @@
         <v>170</v>
       </c>
       <c r="C166" s="0">
-        <v>276.797325</v>
+        <v>266.101698</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>8</v>
@@ -3403,7 +3766,7 @@
         <v>171</v>
       </c>
       <c r="C167" s="4">
-        <v>276.802305</v>
+        <v>266.241479</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>8</v>
@@ -3417,7 +3780,7 @@
         <v>172</v>
       </c>
       <c r="C168" s="0">
-        <v>277.116065</v>
+        <v>266.225847</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>8</v>
@@ -3431,7 +3794,7 @@
         <v>173</v>
       </c>
       <c r="C169" s="4">
-        <v>277.158594</v>
+        <v>266.320197</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>8</v>
@@ -3445,7 +3808,7 @@
         <v>174</v>
       </c>
       <c r="C170" s="0">
-        <v>277.157705</v>
+        <v>266.688176</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>8</v>
@@ -3459,7 +3822,7 @@
         <v>175</v>
       </c>
       <c r="C171" s="4">
-        <v>277.231056</v>
+        <v>266.670589</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>8</v>
@@ -3473,7 +3836,7 @@
         <v>176</v>
       </c>
       <c r="C172" s="0">
-        <v>277.269469</v>
+        <v>266.676338</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>8</v>
@@ -3487,7 +3850,7 @@
         <v>177</v>
       </c>
       <c r="C173" s="4">
-        <v>277.511508</v>
+        <v>266.729967</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>8</v>
@@ -3501,7 +3864,7 @@
         <v>178</v>
       </c>
       <c r="C174" s="0">
-        <v>277.567202</v>
+        <v>266.784055</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>8</v>
@@ -3515,7 +3878,7 @@
         <v>179</v>
       </c>
       <c r="C175" s="4">
-        <v>277.644944</v>
+        <v>266.86168</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>8</v>
@@ -3529,7 +3892,7 @@
         <v>180</v>
       </c>
       <c r="C176" s="0">
-        <v>277.803114</v>
+        <v>266.863003</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>8</v>
@@ -3543,7 +3906,7 @@
         <v>181</v>
       </c>
       <c r="C177" s="4">
-        <v>277.914434</v>
+        <v>266.986583</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>8</v>
@@ -3557,7 +3920,7 @@
         <v>182</v>
       </c>
       <c r="C178" s="0">
-        <v>278.174836</v>
+        <v>266.793713</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>8</v>
@@ -3571,7 +3934,7 @@
         <v>183</v>
       </c>
       <c r="C179" s="4">
-        <v>278.265992</v>
+        <v>266.912286</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>8</v>
@@ -3585,7 +3948,7 @@
         <v>184</v>
       </c>
       <c r="C180" s="0">
-        <v>278.319335</v>
+        <v>267.118407</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>8</v>
@@ -3599,7 +3962,7 @@
         <v>185</v>
       </c>
       <c r="C181" s="4">
-        <v>278.429246</v>
+        <v>267.050085</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>8</v>
@@ -3613,7 +3976,7 @@
         <v>186</v>
       </c>
       <c r="C182" s="0">
-        <v>278.523046</v>
+        <v>266.989213</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>8</v>
@@ -3627,7 +3990,7 @@
         <v>187</v>
       </c>
       <c r="C183" s="4">
-        <v>278.886122</v>
+        <v>267.176539</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>8</v>
@@ -3641,7 +4004,7 @@
         <v>188</v>
       </c>
       <c r="C184" s="0">
-        <v>279.033799</v>
+        <v>267.229851</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>8</v>
@@ -3655,7 +4018,7 @@
         <v>189</v>
       </c>
       <c r="C185" s="4">
-        <v>279.170303</v>
+        <v>267.548663</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>8</v>
@@ -3669,7 +4032,7 @@
         <v>190</v>
       </c>
       <c r="C186" s="0">
-        <v>279.323052</v>
+        <v>267.557028</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>8</v>
@@ -3683,7 +4046,7 @@
         <v>191</v>
       </c>
       <c r="C187" s="4">
-        <v>279.536578</v>
+        <v>267.608398</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>8</v>
@@ -3697,7 +4060,7 @@
         <v>192</v>
       </c>
       <c r="C188" s="0">
-        <v>279.647916</v>
+        <v>267.630215</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>8</v>
@@ -3711,7 +4074,7 @@
         <v>193</v>
       </c>
       <c r="C189" s="4">
-        <v>279.766866</v>
+        <v>267.662535</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>8</v>
@@ -3725,7 +4088,7 @@
         <v>194</v>
       </c>
       <c r="C190" s="0">
-        <v>279.846183</v>
+        <v>267.883121</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>8</v>
@@ -3739,7 +4102,7 @@
         <v>195</v>
       </c>
       <c r="C191" s="4">
-        <v>279.879356</v>
+        <v>267.932573</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>8</v>
@@ -3753,7 +4116,7 @@
         <v>196</v>
       </c>
       <c r="C192" s="0">
-        <v>280.020382</v>
+        <v>268.048758</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>8</v>
@@ -3767,7 +4130,7 @@
         <v>197</v>
       </c>
       <c r="C193" s="4">
-        <v>280.158983</v>
+        <v>268.321004</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>8</v>
@@ -3781,7 +4144,7 @@
         <v>198</v>
       </c>
       <c r="C194" s="0">
-        <v>280.186898</v>
+        <v>268.69159</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>8</v>
@@ -3795,7 +4158,7 @@
         <v>199</v>
       </c>
       <c r="C195" s="4">
-        <v>280.202519</v>
+        <v>268.758865</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>8</v>
@@ -3809,7 +4172,7 @@
         <v>200</v>
       </c>
       <c r="C196" s="0">
-        <v>280.309443</v>
+        <v>268.820531</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>8</v>
@@ -3823,7 +4186,7 @@
         <v>201</v>
       </c>
       <c r="C197" s="4">
-        <v>280.270872</v>
+        <v>268.913508</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>8</v>
@@ -3837,7 +4200,7 @@
         <v>202</v>
       </c>
       <c r="C198" s="0">
-        <v>280.39412</v>
+        <v>269.009709</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>8</v>
@@ -3851,7 +4214,7 @@
         <v>203</v>
       </c>
       <c r="C199" s="4">
-        <v>280.404972</v>
+        <v>269.037987</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>8</v>
@@ -3865,7 +4228,7 @@
         <v>204</v>
       </c>
       <c r="C200" s="0">
-        <v>280.396082</v>
+        <v>269.100502</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>8</v>
@@ -3879,7 +4242,7 @@
         <v>205</v>
       </c>
       <c r="C201" s="4">
-        <v>280.684137</v>
+        <v>269.226221</v>
       </c>
       <c r="D201" s="4" t="s">
         <v>8</v>
@@ -3893,7 +4256,7 @@
         <v>206</v>
       </c>
       <c r="C202" s="0">
-        <v>280.7473</v>
+        <v>269.396762</v>
       </c>
       <c r="D202" s="0" t="s">
         <v>8</v>
@@ -3907,7 +4270,7 @@
         <v>207</v>
       </c>
       <c r="C203" s="4">
-        <v>280.76209</v>
+        <v>269.393617</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>8</v>
@@ -3921,7 +4284,7 @@
         <v>208</v>
       </c>
       <c r="C204" s="0">
-        <v>280.662956</v>
+        <v>269.583165</v>
       </c>
       <c r="D204" s="0" t="s">
         <v>8</v>
@@ -3935,7 +4298,7 @@
         <v>209</v>
       </c>
       <c r="C205" s="4">
-        <v>280.767347</v>
+        <v>269.638355</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>8</v>
@@ -3949,7 +4312,7 @@
         <v>210</v>
       </c>
       <c r="C206" s="0">
-        <v>280.905141</v>
+        <v>269.688684</v>
       </c>
       <c r="D206" s="0" t="s">
         <v>8</v>
@@ -3963,7 +4326,7 @@
         <v>211</v>
       </c>
       <c r="C207" s="4">
-        <v>280.771287</v>
+        <v>269.727133</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>8</v>
@@ -3977,7 +4340,7 @@
         <v>212</v>
       </c>
       <c r="C208" s="0">
-        <v>280.819996</v>
+        <v>269.767441</v>
       </c>
       <c r="D208" s="0" t="s">
         <v>8</v>
@@ -3991,7 +4354,7 @@
         <v>213</v>
       </c>
       <c r="C209" s="4">
-        <v>280.85951</v>
+        <v>269.993682</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>8</v>
@@ -4005,7 +4368,7 @@
         <v>214</v>
       </c>
       <c r="C210" s="0">
-        <v>281.004161</v>
+        <v>270.063282</v>
       </c>
       <c r="D210" s="0" t="s">
         <v>8</v>
@@ -4019,7 +4382,7 @@
         <v>215</v>
       </c>
       <c r="C211" s="4">
-        <v>281.156494</v>
+        <v>270.093454</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>8</v>
@@ -4033,7 +4396,7 @@
         <v>216</v>
       </c>
       <c r="C212" s="0">
-        <v>281.203629</v>
+        <v>270.126289</v>
       </c>
       <c r="D212" s="0" t="s">
         <v>8</v>
@@ -4047,7 +4410,7 @@
         <v>217</v>
       </c>
       <c r="C213" s="4">
-        <v>281.3464</v>
+        <v>270.196964</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>8</v>
@@ -4061,7 +4424,7 @@
         <v>218</v>
       </c>
       <c r="C214" s="0">
-        <v>281.378209</v>
+        <v>270.436022</v>
       </c>
       <c r="D214" s="0" t="s">
         <v>8</v>
@@ -4075,7 +4438,7 @@
         <v>219</v>
       </c>
       <c r="C215" s="4">
-        <v>281.400741</v>
+        <v>270.315082</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>8</v>
@@ -4089,7 +4452,7 @@
         <v>220</v>
       </c>
       <c r="C216" s="0">
-        <v>281.473887</v>
+        <v>270.395237</v>
       </c>
       <c r="D216" s="0" t="s">
         <v>8</v>
@@ -4103,7 +4466,7 @@
         <v>221</v>
       </c>
       <c r="C217" s="4">
-        <v>281.63628</v>
+        <v>270.619942</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>8</v>
@@ -4117,7 +4480,7 @@
         <v>222</v>
       </c>
       <c r="C218" s="0">
-        <v>281.800436</v>
+        <v>270.775768</v>
       </c>
       <c r="D218" s="0" t="s">
         <v>8</v>
@@ -4131,7 +4494,7 @@
         <v>223</v>
       </c>
       <c r="C219" s="4">
-        <v>281.986803</v>
+        <v>270.554636</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>8</v>
@@ -4145,7 +4508,7 @@
         <v>224</v>
       </c>
       <c r="C220" s="0">
-        <v>282.235919</v>
+        <v>270.590353</v>
       </c>
       <c r="D220" s="0" t="s">
         <v>8</v>
@@ -4159,7 +4522,7 @@
         <v>225</v>
       </c>
       <c r="C221" s="4">
-        <v>282.330944</v>
+        <v>270.427346</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>8</v>
@@ -4173,7 +4536,7 @@
         <v>226</v>
       </c>
       <c r="C222" s="0">
-        <v>282.372935</v>
+        <v>270.464367</v>
       </c>
       <c r="D222" s="0" t="s">
         <v>8</v>
@@ -4187,7 +4550,7 @@
         <v>227</v>
       </c>
       <c r="C223" s="4">
-        <v>282.390564</v>
+        <v>270.845987</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>8</v>
@@ -4201,7 +4564,7 @@
         <v>228</v>
       </c>
       <c r="C224" s="0">
-        <v>282.533825</v>
+        <v>270.935152</v>
       </c>
       <c r="D224" s="0" t="s">
         <v>8</v>
@@ -4215,7 +4578,7 @@
         <v>229</v>
       </c>
       <c r="C225" s="4">
-        <v>282.735602</v>
+        <v>270.922147</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>8</v>
@@ -4229,7 +4592,7 @@
         <v>230</v>
       </c>
       <c r="C226" s="0">
-        <v>282.995643</v>
+        <v>271.172805</v>
       </c>
       <c r="D226" s="0" t="s">
         <v>8</v>
@@ -4243,7 +4606,7 @@
         <v>231</v>
       </c>
       <c r="C227" s="4">
-        <v>283.20286</v>
+        <v>271.238399</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>8</v>
@@ -4257,7 +4620,7 @@
         <v>232</v>
       </c>
       <c r="C228" s="0">
-        <v>283.280639</v>
+        <v>271.37877</v>
       </c>
       <c r="D228" s="0" t="s">
         <v>8</v>
@@ -4271,7 +4634,7 @@
         <v>233</v>
       </c>
       <c r="C229" s="4">
-        <v>283.285467</v>
+        <v>271.62659</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>8</v>
@@ -4285,7 +4648,7 @@
         <v>234</v>
       </c>
       <c r="C230" s="0">
-        <v>283.494145</v>
+        <v>271.827773</v>
       </c>
       <c r="D230" s="0" t="s">
         <v>8</v>
@@ -4299,7 +4662,7 @@
         <v>235</v>
       </c>
       <c r="C231" s="4">
-        <v>283.664356</v>
+        <v>271.90341</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>8</v>
@@ -4313,7 +4676,7 @@
         <v>236</v>
       </c>
       <c r="C232" s="0">
-        <v>283.65382</v>
+        <v>271.932631</v>
       </c>
       <c r="D232" s="0" t="s">
         <v>8</v>
@@ -4327,7 +4690,7 @@
         <v>237</v>
       </c>
       <c r="C233" s="4">
-        <v>283.800398</v>
+        <v>272.086549</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>8</v>
@@ -4341,7 +4704,7 @@
         <v>238</v>
       </c>
       <c r="C234" s="0">
-        <v>283.931402</v>
+        <v>272.357044</v>
       </c>
       <c r="D234" s="0" t="s">
         <v>8</v>
@@ -4355,7 +4718,7 @@
         <v>239</v>
       </c>
       <c r="C235" s="4">
-        <v>284.222665</v>
+        <v>272.317678</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>8</v>
@@ -4369,7 +4732,7 @@
         <v>240</v>
       </c>
       <c r="C236" s="0">
-        <v>284.300737</v>
+        <v>272.357438</v>
       </c>
       <c r="D236" s="0" t="s">
         <v>8</v>
@@ -4383,7 +4746,7 @@
         <v>241</v>
       </c>
       <c r="C237" s="4">
-        <v>284.447752</v>
+        <v>272.461901</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>8</v>
@@ -4397,7 +4760,7 @@
         <v>242</v>
       </c>
       <c r="C238" s="0">
-        <v>284.525632</v>
+        <v>272.494703</v>
       </c>
       <c r="D238" s="0" t="s">
         <v>8</v>
@@ -4411,7 +4774,7 @@
         <v>243</v>
       </c>
       <c r="C239" s="4">
-        <v>284.629024</v>
+        <v>272.74034</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>8</v>
@@ -4425,7 +4788,7 @@
         <v>244</v>
       </c>
       <c r="C240" s="0">
-        <v>284.824767</v>
+        <v>272.804828</v>
       </c>
       <c r="D240" s="0" t="s">
         <v>8</v>
@@ -4439,7 +4802,7 @@
         <v>245</v>
       </c>
       <c r="C241" s="4">
-        <v>284.981456</v>
+        <v>272.853455</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>8</v>
@@ -4453,7 +4816,7 @@
         <v>246</v>
       </c>
       <c r="C242" s="0">
-        <v>285.070695</v>
+        <v>273.056722</v>
       </c>
       <c r="D242" s="0" t="s">
         <v>8</v>
@@ -4467,7 +4830,7 @@
         <v>247</v>
       </c>
       <c r="C243" s="4">
-        <v>285.200727</v>
+        <v>273.303958</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>8</v>
@@ -4481,7 +4844,7 @@
         <v>248</v>
       </c>
       <c r="C244" s="0">
-        <v>285.321031</v>
+        <v>273.562558</v>
       </c>
       <c r="D244" s="0" t="s">
         <v>8</v>
@@ -4495,7 +4858,7 @@
         <v>249</v>
       </c>
       <c r="C245" s="4">
-        <v>285.370668</v>
+        <v>273.634168</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>8</v>
@@ -4509,7 +4872,7 @@
         <v>250</v>
       </c>
       <c r="C246" s="0">
-        <v>285.424214</v>
+        <v>273.708243</v>
       </c>
       <c r="D246" s="0" t="s">
         <v>8</v>
@@ -4523,7 +4886,7 @@
         <v>251</v>
       </c>
       <c r="C247" s="4">
-        <v>285.447273</v>
+        <v>273.718753</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>8</v>
@@ -4537,7 +4900,7 @@
         <v>252</v>
       </c>
       <c r="C248" s="0">
-        <v>285.41689</v>
+        <v>273.668954</v>
       </c>
       <c r="D248" s="0" t="s">
         <v>8</v>
@@ -4551,7 +4914,7 @@
         <v>253</v>
       </c>
       <c r="C249" s="4">
-        <v>285.515357</v>
+        <v>273.838037</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>8</v>
@@ -4565,7 +4928,7 @@
         <v>254</v>
       </c>
       <c r="C250" s="0">
-        <v>285.481581</v>
+        <v>273.947474</v>
       </c>
       <c r="D250" s="0" t="s">
         <v>8</v>
@@ -4579,7 +4942,7 @@
         <v>255</v>
       </c>
       <c r="C251" s="4">
-        <v>285.671428</v>
+        <v>273.975401</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>8</v>
@@ -4593,7 +4956,7 @@
         <v>256</v>
       </c>
       <c r="C252" s="0">
-        <v>285.712513</v>
+        <v>274.097596</v>
       </c>
       <c r="D252" s="0" t="s">
         <v>8</v>
@@ -4607,7 +4970,7 @@
         <v>257</v>
       </c>
       <c r="C253" s="4">
-        <v>285.89486</v>
+        <v>274.197338</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>8</v>
@@ -4621,7 +4984,7 @@
         <v>258</v>
       </c>
       <c r="C254" s="0">
-        <v>285.964236</v>
+        <v>274.494678</v>
       </c>
       <c r="D254" s="0" t="s">
         <v>8</v>
@@ -4635,7 +4998,7 @@
         <v>259</v>
       </c>
       <c r="C255" s="4">
-        <v>286.116178</v>
+        <v>274.587577</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>8</v>
@@ -4649,7 +5012,7 @@
         <v>260</v>
       </c>
       <c r="C256" s="0">
-        <v>286.20038</v>
+        <v>274.658348</v>
       </c>
       <c r="D256" s="0" t="s">
         <v>8</v>
@@ -4663,7 +5026,7 @@
         <v>261</v>
       </c>
       <c r="C257" s="4">
-        <v>286.359484</v>
+        <v>274.819838</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>8</v>
@@ -4677,7 +5040,7 @@
         <v>262</v>
       </c>
       <c r="C258" s="0">
-        <v>286.4678</v>
+        <v>274.881492</v>
       </c>
       <c r="D258" s="0" t="s">
         <v>8</v>
@@ -4691,7 +5054,7 @@
         <v>263</v>
       </c>
       <c r="C259" s="4">
-        <v>286.631756</v>
+        <v>275.37296</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>8</v>
@@ -4705,7 +5068,7 @@
         <v>264</v>
       </c>
       <c r="C260" s="0">
-        <v>286.719946</v>
+        <v>275.411434</v>
       </c>
       <c r="D260" s="0" t="s">
         <v>8</v>
@@ -4719,7 +5082,7 @@
         <v>265</v>
       </c>
       <c r="C261" s="4">
-        <v>286.834429</v>
+        <v>275.422398</v>
       </c>
       <c r="D261" s="4" t="s">
         <v>8</v>
@@ -4733,7 +5096,7 @@
         <v>266</v>
       </c>
       <c r="C262" s="0">
-        <v>286.964355</v>
+        <v>275.613665</v>
       </c>
       <c r="D262" s="0" t="s">
         <v>8</v>
@@ -4747,7 +5110,7 @@
         <v>267</v>
       </c>
       <c r="C263" s="4">
-        <v>286.974318</v>
+        <v>275.875082</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>8</v>
@@ -4761,7 +5124,7 @@
         <v>268</v>
       </c>
       <c r="C264" s="0">
-        <v>287.0543</v>
+        <v>276.171156</v>
       </c>
       <c r="D264" s="0" t="s">
         <v>8</v>
@@ -4775,7 +5138,7 @@
         <v>269</v>
       </c>
       <c r="C265" s="4">
-        <v>287.224558</v>
+        <v>276.203523</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>8</v>
@@ -4789,7 +5152,7 @@
         <v>270</v>
       </c>
       <c r="C266" s="0">
-        <v>287.278843</v>
+        <v>276.263605</v>
       </c>
       <c r="D266" s="0" t="s">
         <v>8</v>
@@ -4803,7 +5166,7 @@
         <v>271</v>
       </c>
       <c r="C267" s="4">
-        <v>287.410258</v>
+        <v>276.31877</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>8</v>
@@ -4817,7 +5180,7 @@
         <v>272</v>
       </c>
       <c r="C268" s="0">
-        <v>287.582266</v>
+        <v>276.333055</v>
       </c>
       <c r="D268" s="0" t="s">
         <v>8</v>
@@ -4831,7 +5194,7 @@
         <v>273</v>
       </c>
       <c r="C269" s="4">
-        <v>287.760828</v>
+        <v>276.590677</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>8</v>
@@ -4845,7 +5208,7 @@
         <v>274</v>
       </c>
       <c r="C270" s="0">
-        <v>287.95247</v>
+        <v>276.661294</v>
       </c>
       <c r="D270" s="0" t="s">
         <v>8</v>
@@ -4859,7 +5222,7 @@
         <v>275</v>
       </c>
       <c r="C271" s="4">
-        <v>288.05683</v>
+        <v>276.700735</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>8</v>
@@ -4873,7 +5236,7 @@
         <v>276</v>
       </c>
       <c r="C272" s="0">
-        <v>288.242624</v>
+        <v>276.797325</v>
       </c>
       <c r="D272" s="0" t="s">
         <v>8</v>
@@ -4887,7 +5250,7 @@
         <v>277</v>
       </c>
       <c r="C273" s="4">
-        <v>288.368249</v>
+        <v>276.802305</v>
       </c>
       <c r="D273" s="4" t="s">
         <v>8</v>
@@ -4901,7 +5264,7 @@
         <v>278</v>
       </c>
       <c r="C274" s="0">
-        <v>288.442721</v>
+        <v>277.116065</v>
       </c>
       <c r="D274" s="0" t="s">
         <v>8</v>
@@ -4915,7 +5278,7 @@
         <v>279</v>
       </c>
       <c r="C275" s="4">
-        <v>288.476951</v>
+        <v>277.158594</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>8</v>
@@ -4929,7 +5292,7 @@
         <v>280</v>
       </c>
       <c r="C276" s="0">
-        <v>288.622343</v>
+        <v>277.157705</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>8</v>
@@ -4943,7 +5306,7 @@
         <v>281</v>
       </c>
       <c r="C277" s="4">
-        <v>288.866486</v>
+        <v>277.231056</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>8</v>
@@ -4957,7 +5320,7 @@
         <v>282</v>
       </c>
       <c r="C278" s="0">
-        <v>289.038239</v>
+        <v>277.269469</v>
       </c>
       <c r="D278" s="0" t="s">
         <v>8</v>
@@ -4971,7 +5334,7 @@
         <v>283</v>
       </c>
       <c r="C279" s="4">
-        <v>289.161073</v>
+        <v>277.511508</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>8</v>
@@ -4985,7 +5348,7 @@
         <v>284</v>
       </c>
       <c r="C280" s="0">
-        <v>289.336346</v>
+        <v>277.567202</v>
       </c>
       <c r="D280" s="0" t="s">
         <v>8</v>
@@ -4999,7 +5362,7 @@
         <v>285</v>
       </c>
       <c r="C281" s="4">
-        <v>289.507501</v>
+        <v>277.644944</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>8</v>
@@ -5013,7 +5376,7 @@
         <v>286</v>
       </c>
       <c r="C282" s="0">
-        <v>289.572406</v>
+        <v>277.803114</v>
       </c>
       <c r="D282" s="0" t="s">
         <v>8</v>
@@ -5027,7 +5390,7 @@
         <v>287</v>
       </c>
       <c r="C283" s="4">
-        <v>289.614587</v>
+        <v>277.914434</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>8</v>
@@ -5041,7 +5404,7 @@
         <v>288</v>
       </c>
       <c r="C284" s="0">
-        <v>289.633543</v>
+        <v>278.174836</v>
       </c>
       <c r="D284" s="0" t="s">
         <v>8</v>
@@ -5055,7 +5418,7 @@
         <v>289</v>
       </c>
       <c r="C285" s="4">
-        <v>289.729475</v>
+        <v>278.265992</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>8</v>
@@ -5069,7 +5432,7 @@
         <v>290</v>
       </c>
       <c r="C286" s="0">
-        <v>289.948924</v>
+        <v>278.319335</v>
       </c>
       <c r="D286" s="0" t="s">
         <v>8</v>
@@ -5083,7 +5446,7 @@
         <v>291</v>
       </c>
       <c r="C287" s="4">
-        <v>290.002468</v>
+        <v>278.429246</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>8</v>
@@ -5097,7 +5460,7 @@
         <v>292</v>
       </c>
       <c r="C288" s="0">
-        <v>290.089227</v>
+        <v>278.523046</v>
       </c>
       <c r="D288" s="0" t="s">
         <v>8</v>
@@ -5111,7 +5474,7 @@
         <v>293</v>
       </c>
       <c r="C289" s="4">
-        <v>290.200603</v>
+        <v>278.886122</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>8</v>
@@ -5125,7 +5488,7 @@
         <v>294</v>
       </c>
       <c r="C290" s="0">
-        <v>290.28774</v>
+        <v>279.033799</v>
       </c>
       <c r="D290" s="0" t="s">
         <v>8</v>
@@ -5139,7 +5502,7 @@
         <v>295</v>
       </c>
       <c r="C291" s="4">
-        <v>290.587961</v>
+        <v>279.170303</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>8</v>
@@ -5153,7 +5516,7 @@
         <v>296</v>
       </c>
       <c r="C292" s="0">
-        <v>290.668146</v>
+        <v>279.323052</v>
       </c>
       <c r="D292" s="0" t="s">
         <v>8</v>
@@ -5167,7 +5530,7 @@
         <v>297</v>
       </c>
       <c r="C293" s="4">
-        <v>290.79741</v>
+        <v>279.536578</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>8</v>
@@ -5181,7 +5544,7 @@
         <v>298</v>
       </c>
       <c r="C294" s="0">
-        <v>290.89516</v>
+        <v>279.647916</v>
       </c>
       <c r="D294" s="0" t="s">
         <v>8</v>
@@ -5195,7 +5558,7 @@
         <v>299</v>
       </c>
       <c r="C295" s="4">
-        <v>290.948712</v>
+        <v>279.766866</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>8</v>
@@ -5209,7 +5572,7 @@
         <v>300</v>
       </c>
       <c r="C296" s="0">
-        <v>291.153883</v>
+        <v>279.846183</v>
       </c>
       <c r="D296" s="0" t="s">
         <v>8</v>
@@ -5223,7 +5586,7 @@
         <v>301</v>
       </c>
       <c r="C297" s="4">
-        <v>291.242987</v>
+        <v>279.879356</v>
       </c>
       <c r="D297" s="4" t="s">
         <v>8</v>
@@ -5237,7 +5600,7 @@
         <v>302</v>
       </c>
       <c r="C298" s="0">
-        <v>291.276594</v>
+        <v>280.020382</v>
       </c>
       <c r="D298" s="0" t="s">
         <v>8</v>
@@ -5251,7 +5614,7 @@
         <v>303</v>
       </c>
       <c r="C299" s="4">
-        <v>291.410948</v>
+        <v>280.158983</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>8</v>
@@ -5265,7 +5628,7 @@
         <v>304</v>
       </c>
       <c r="C300" s="0">
-        <v>291.468154</v>
+        <v>280.186898</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>8</v>
@@ -5279,7 +5642,7 @@
         <v>305</v>
       </c>
       <c r="C301" s="4">
-        <v>291.63497</v>
+        <v>280.202519</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>8</v>
@@ -5293,7 +5656,7 @@
         <v>306</v>
       </c>
       <c r="C302" s="0">
-        <v>291.702763</v>
+        <v>280.309443</v>
       </c>
       <c r="D302" s="0" t="s">
         <v>8</v>
@@ -5307,7 +5670,7 @@
         <v>307</v>
       </c>
       <c r="C303" s="4">
-        <v>291.773025</v>
+        <v>280.270872</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>8</v>
@@ -5321,7 +5684,7 @@
         <v>308</v>
       </c>
       <c r="C304" s="0">
-        <v>291.843141</v>
+        <v>280.39412</v>
       </c>
       <c r="D304" s="0" t="s">
         <v>8</v>
@@ -5335,7 +5698,7 @@
         <v>309</v>
       </c>
       <c r="C305" s="4">
-        <v>291.972582</v>
+        <v>280.404972</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>8</v>
@@ -5349,7 +5712,7 @@
         <v>310</v>
       </c>
       <c r="C306" s="0">
-        <v>292.209743</v>
+        <v>280.396082</v>
       </c>
       <c r="D306" s="0" t="s">
         <v>8</v>
@@ -5363,7 +5726,7 @@
         <v>311</v>
       </c>
       <c r="C307" s="4">
-        <v>292.297417</v>
+        <v>280.684137</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>8</v>
@@ -5377,7 +5740,7 @@
         <v>312</v>
       </c>
       <c r="C308" s="0">
-        <v>292.395802</v>
+        <v>280.7473</v>
       </c>
       <c r="D308" s="0" t="s">
         <v>8</v>
@@ -5391,7 +5754,7 @@
         <v>313</v>
       </c>
       <c r="C309" s="4">
-        <v>292.44955</v>
+        <v>280.76209</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>8</v>
@@ -5405,7 +5768,7 @@
         <v>314</v>
       </c>
       <c r="C310" s="0">
-        <v>292.61495</v>
+        <v>280.662956</v>
       </c>
       <c r="D310" s="0" t="s">
         <v>8</v>
@@ -5419,7 +5782,7 @@
         <v>315</v>
       </c>
       <c r="C311" s="4">
-        <v>292.669785</v>
+        <v>280.767347</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>8</v>
@@ -5433,7 +5796,7 @@
         <v>316</v>
       </c>
       <c r="C312" s="0">
-        <v>292.739928</v>
+        <v>280.905141</v>
       </c>
       <c r="D312" s="0" t="s">
         <v>8</v>
@@ -5447,7 +5810,7 @@
         <v>317</v>
       </c>
       <c r="C313" s="4">
-        <v>292.805987</v>
+        <v>280.771287</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>8</v>
@@ -5461,7 +5824,7 @@
         <v>318</v>
       </c>
       <c r="C314" s="0">
-        <v>292.947915</v>
+        <v>280.819996</v>
       </c>
       <c r="D314" s="0" t="s">
         <v>8</v>
@@ -5475,7 +5838,7 @@
         <v>319</v>
       </c>
       <c r="C315" s="4">
-        <v>293.214821</v>
+        <v>280.85951</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>8</v>
@@ -5489,7 +5852,7 @@
         <v>320</v>
       </c>
       <c r="C316" s="0">
-        <v>293.274682</v>
+        <v>281.004161</v>
       </c>
       <c r="D316" s="0" t="s">
         <v>8</v>
@@ -5503,7 +5866,7 @@
         <v>321</v>
       </c>
       <c r="C317" s="4">
-        <v>293.404509</v>
+        <v>281.156494</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>8</v>
@@ -5517,7 +5880,7 @@
         <v>322</v>
       </c>
       <c r="C318" s="0">
-        <v>293.481961</v>
+        <v>281.203629</v>
       </c>
       <c r="D318" s="0" t="s">
         <v>8</v>
@@ -5531,7 +5894,7 @@
         <v>323</v>
       </c>
       <c r="C319" s="4">
-        <v>293.739445</v>
+        <v>281.3464</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>8</v>
@@ -5545,7 +5908,7 @@
         <v>324</v>
       </c>
       <c r="C320" s="0">
-        <v>293.886449</v>
+        <v>281.378209</v>
       </c>
       <c r="D320" s="0" t="s">
         <v>8</v>
@@ -5559,7 +5922,7 @@
         <v>325</v>
       </c>
       <c r="C321" s="4">
-        <v>293.851494</v>
+        <v>281.400741</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>8</v>
@@ -5573,20 +5936,1714 @@
         <v>326</v>
       </c>
       <c r="C322" s="0">
+        <v>281.473887</v>
+      </c>
+      <c r="D322" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C323" s="4">
+        <v>281.63628</v>
+      </c>
+      <c r="D323" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C324" s="0">
+        <v>281.800436</v>
+      </c>
+      <c r="D324" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C325" s="4">
+        <v>281.986803</v>
+      </c>
+      <c r="D325" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C326" s="0">
+        <v>282.235919</v>
+      </c>
+      <c r="D326" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C327" s="4">
+        <v>282.330944</v>
+      </c>
+      <c r="D327" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C328" s="0">
+        <v>282.372935</v>
+      </c>
+      <c r="D328" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C329" s="4">
+        <v>282.390564</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C330" s="0">
+        <v>282.533825</v>
+      </c>
+      <c r="D330" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C331" s="4">
+        <v>282.735602</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C332" s="0">
+        <v>282.995643</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C333" s="4">
+        <v>283.20286</v>
+      </c>
+      <c r="D333" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C334" s="0">
+        <v>283.280639</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C335" s="4">
+        <v>283.285467</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C336" s="0">
+        <v>283.494145</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C337" s="4">
+        <v>283.664356</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C338" s="0">
+        <v>283.65382</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C339" s="4">
+        <v>283.800398</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C340" s="0">
+        <v>283.931402</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C341" s="4">
+        <v>284.222665</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C342" s="0">
+        <v>284.300737</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C343" s="4">
+        <v>284.447752</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C344" s="0">
+        <v>284.525632</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C345" s="4">
+        <v>284.629024</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C346" s="0">
+        <v>284.824767</v>
+      </c>
+      <c r="D346" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C347" s="4">
+        <v>284.981456</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C348" s="0">
+        <v>285.070695</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C349" s="4">
+        <v>285.200727</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C350" s="0">
+        <v>285.321031</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C351" s="4">
+        <v>285.370668</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C352" s="0">
+        <v>285.424214</v>
+      </c>
+      <c r="D352" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C353" s="4">
+        <v>285.447273</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C354" s="0">
+        <v>285.41689</v>
+      </c>
+      <c r="D354" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C355" s="4">
+        <v>285.515357</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C356" s="0">
+        <v>285.481581</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C357" s="4">
+        <v>285.671428</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C358" s="0">
+        <v>285.712513</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C359" s="4">
+        <v>285.89486</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C360" s="0">
+        <v>285.964236</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C361" s="4">
+        <v>286.116178</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C362" s="0">
+        <v>286.20038</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C363" s="4">
+        <v>286.359484</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C364" s="0">
+        <v>286.4678</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C365" s="4">
+        <v>286.631756</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C366" s="0">
+        <v>286.719946</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C367" s="4">
+        <v>286.834429</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C368" s="0">
+        <v>286.964355</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C369" s="4">
+        <v>286.974318</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C370" s="0">
+        <v>287.0543</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C371" s="4">
+        <v>287.224558</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C372" s="0">
+        <v>287.278843</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C373" s="4">
+        <v>287.410258</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C374" s="0">
+        <v>287.582266</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C375" s="4">
+        <v>287.760828</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="C376" s="0">
+        <v>287.95247</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C377" s="4">
+        <v>288.05683</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C378" s="0">
+        <v>288.242624</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C379" s="4">
+        <v>288.368249</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C380" s="0">
+        <v>288.442721</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C381" s="4">
+        <v>288.476951</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C382" s="0">
+        <v>288.622343</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C383" s="4">
+        <v>288.866486</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C384" s="0">
+        <v>289.038239</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C385" s="4">
+        <v>289.161073</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C386" s="0">
+        <v>289.336346</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C387" s="4">
+        <v>289.507501</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="C388" s="0">
+        <v>289.572406</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C389" s="4">
+        <v>289.614587</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="C390" s="0">
+        <v>289.633543</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C391" s="4">
+        <v>289.729475</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C392" s="0">
+        <v>289.948924</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C393" s="4">
+        <v>290.002468</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C394" s="0">
+        <v>290.089227</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C395" s="4">
+        <v>290.200603</v>
+      </c>
+      <c r="D395" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C396" s="0">
+        <v>290.28774</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C397" s="4">
+        <v>290.587961</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="C398" s="0">
+        <v>290.668146</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C399" s="4">
+        <v>290.79741</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C400" s="0">
+        <v>290.89516</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C401" s="4">
+        <v>290.948712</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C402" s="0">
+        <v>291.153883</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C403" s="4">
+        <v>291.242987</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C404" s="0">
+        <v>291.276594</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C405" s="4">
+        <v>291.410948</v>
+      </c>
+      <c r="D405" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C406" s="0">
+        <v>291.468154</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C407" s="4">
+        <v>291.63497</v>
+      </c>
+      <c r="D407" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C408" s="0">
+        <v>291.702763</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C409" s="4">
+        <v>291.773025</v>
+      </c>
+      <c r="D409" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C410" s="0">
+        <v>291.843141</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C411" s="4">
+        <v>291.972582</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C412" s="0">
+        <v>292.209743</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C413" s="4">
+        <v>292.297417</v>
+      </c>
+      <c r="D413" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C414" s="0">
+        <v>292.395802</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C415" s="4">
+        <v>292.44955</v>
+      </c>
+      <c r="D415" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C416" s="0">
+        <v>292.61495</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C417" s="4">
+        <v>292.669785</v>
+      </c>
+      <c r="D417" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C418" s="0">
+        <v>292.739928</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C419" s="4">
+        <v>292.805987</v>
+      </c>
+      <c r="D419" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C420" s="0">
+        <v>292.947915</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C421" s="4">
+        <v>293.214821</v>
+      </c>
+      <c r="D421" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C422" s="0">
+        <v>293.274682</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C423" s="4">
+        <v>293.404509</v>
+      </c>
+      <c r="D423" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C424" s="0">
+        <v>293.481961</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C425" s="4">
+        <v>293.739445</v>
+      </c>
+      <c r="D425" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C426" s="0">
+        <v>293.886449</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C427" s="4">
+        <v>293.851494</v>
+      </c>
+      <c r="D427" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C428" s="0">
         <v>293.912706</v>
       </c>
-      <c r="D322" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="5" t="s">
-        <v>328</v>
+      <c r="D428" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C429" s="4">
+        <v>293.990669</v>
+      </c>
+      <c r="D429" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="C430" s="0">
+        <v>294.005789</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C431" s="4">
+        <v>294.159439</v>
+      </c>
+      <c r="D431" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C432" s="0">
+        <v>294.240202</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C433" s="4">
+        <v>294.342238</v>
+      </c>
+      <c r="D433" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="C434" s="0">
+        <v>294.653902</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C435" s="4">
+        <v>294.67604</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C436" s="0">
+        <v>294.743622</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C437" s="4">
+        <v>294.803754</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C438" s="0">
+        <v>294.913126</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C439" s="4">
+        <v>295.069992</v>
+      </c>
+      <c r="D439" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C440" s="0">
+        <v>295.132601</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C441" s="4">
+        <v>295.211155</v>
+      </c>
+      <c r="D441" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C442" s="0">
+        <v>295.341174</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C443" s="4">
+        <v>295.48954</v>
+      </c>
+      <c r="D443" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="5" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -1356,6 +1356,51 @@
   </si>
   <si>
     <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>07/05/2025</t>
+  </si>
+  <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
+    <t>09/05/2025</t>
+  </si>
+  <si>
+    <t>12/05/2025</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>14/05/2025</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>21/05/2025</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1446,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D447"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7636,14 +7681,224 @@
         <v>8</v>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B444" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C444" s="0">
+        <v>295.559266</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C445" s="4">
+        <v>295.691995</v>
+      </c>
+      <c r="D445" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="446">
-      <c r="A446" s="5" t="s">
-        <v>448</v>
+      <c r="A446" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C446" s="0">
+        <v>295.78148</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="5" t="s">
-        <v>449</v>
+      <c r="A447" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C447" s="4">
+        <v>295.790901</v>
+      </c>
+      <c r="D447" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="C448" s="0">
+        <v>295.979545</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C449" s="4">
+        <v>295.999764</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C450" s="0">
+        <v>296.027709</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C451" s="4">
+        <v>296.021193</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B452" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C452" s="0">
+        <v>296.226903</v>
+      </c>
+      <c r="D452" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C453" s="4">
+        <v>296.415358</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C454" s="0">
+        <v>296.472178</v>
+      </c>
+      <c r="D454" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C455" s="4">
+        <v>296.536399</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C456" s="0">
+        <v>296.564232</v>
+      </c>
+      <c r="D456" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C457" s="4">
+        <v>296.635736</v>
+      </c>
+      <c r="D457" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C458" s="0">
+        <v>296.782892</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -1401,6 +1401,12 @@
   </si>
   <si>
     <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1491,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D464"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7891,14 +7897,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="5" t="s">
+    <row r="459">
+      <c r="A459" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B459" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="5" t="s">
+      <c r="C459" s="4">
+        <v>296.835228</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B460" s="0" t="s">
         <v>464</v>
+      </c>
+      <c r="C460" s="0">
+        <v>296.932735</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -1407,6 +1407,18 @@
   </si>
   <si>
     <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1497,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D464"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7925,14 +7937,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C461" s="4">
+        <v>297.012599</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B462" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="C462" s="0">
+        <v>297.126958</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="463">
-      <c r="A463" s="5" t="s">
-        <v>465</v>
+      <c r="A463" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C463" s="4">
+        <v>297.275554</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="5" t="s">
-        <v>466</v>
+      <c r="A464" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="C464" s="0">
+        <v>297.3291</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="5" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -1419,6 +1419,48 @@
   </si>
   <si>
     <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>11/06/2025</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1509,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D482"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7993,14 +8035,210 @@
         <v>8</v>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C465" s="4">
+        <v>297.422438</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C466" s="0">
+        <v>297.553691</v>
+      </c>
+      <c r="D466" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="467">
-      <c r="A467" s="5" t="s">
-        <v>469</v>
+      <c r="A467" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C467" s="4">
+        <v>297.633032</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="5" t="s">
-        <v>470</v>
+      <c r="A468" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C468" s="0">
+        <v>297.756364</v>
+      </c>
+      <c r="D468" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C469" s="4">
+        <v>297.777932</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C470" s="0">
+        <v>297.791778</v>
+      </c>
+      <c r="D470" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C471" s="4">
+        <v>297.835744</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="C472" s="0">
+        <v>297.916056</v>
+      </c>
+      <c r="D472" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C473" s="4">
+        <v>298.060926</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="C474" s="0">
+        <v>298.095409</v>
+      </c>
+      <c r="D474" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C475" s="4">
+        <v>298.171032</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="C476" s="0">
+        <v>298.253199</v>
+      </c>
+      <c r="D476" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C477" s="4">
+        <v>298.307821</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="C478" s="0">
+        <v>298.446814</v>
+      </c>
+      <c r="D478" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
+++ b/ArchivosPeergroups/Benchmarks/Historico_ISIMP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>Consula de índices</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
   </si>
   <si>
     <t>FUENTE: ARYES http://www.aryes.info</t>
@@ -1551,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D482"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8231,14 +8234,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="5" t="s">
+    <row r="479">
+      <c r="A479" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B479" s="4" t="s">
         <v>483</v>
+      </c>
+      <c r="C479" s="4">
+        <v>298.511093</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="5" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
